--- a/biology/Zoologie/Erythrolamprus_typhlus/Erythrolamprus_typhlus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_typhlus/Erythrolamprus_typhlus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus typhlus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus typhlus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Guyane ;
 au Suriname ;
 au Guyana ;
@@ -553,9 +567,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 janvier 2014) :
 Erythrolamprus typhlus brachyurus (Cope, 1887)
 Erythrolamprus typhlus elaeoides (Griffin, 1916)
 Erythrolamprus typhlus typhlus (Linnaeus, 1758)</t>
@@ -586,7 +602,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1887 : Synopsis of the batrachia and reptilia obtained by H. H. Smith, in the province of Mato Grosso, Brazil. Proceedings of the American Philosophical Society, vol. 24, p. 44-60 (texte intégral).
 Griffin, 1916 "1915" : A catalog of the Ophidia from South America at present (June 1916) contained in the Carnegie Museum with descriptions of some new species. Memoirs of the Carnegie Museum, vol. 7, no 3, p. 163-228 (texte intégral).
